--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1433.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1433.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.864037943297413</v>
+        <v>0.4408552348613739</v>
       </c>
       <c r="B1">
-        <v>2.015040920179468</v>
+        <v>3.874288320541382</v>
       </c>
       <c r="C1">
-        <v>2.268122927889038</v>
+        <v>5.826854228973389</v>
       </c>
       <c r="D1">
-        <v>3.517399064461561</v>
+        <v>1.630766630172729</v>
       </c>
       <c r="E1">
-        <v>1.361155074025377</v>
+        <v>0.9789308309555054</v>
       </c>
     </row>
   </sheetData>
